--- a/src/data/TestNGXML.xlsx
+++ b/src/data/TestNGXML.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Suite Name</t>
   </si>
@@ -55,40 +55,37 @@
     <t>Test.TestUserDelete</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>UnitTest_03</t>
+  </si>
+  <si>
+    <t>Test.LoginTest</t>
+  </si>
+  <si>
+    <t>UnitTest_01</t>
+  </si>
+  <si>
+    <t>Test.TestUserCreation</t>
+  </si>
+  <si>
+    <t>UnitTest_04</t>
+  </si>
+  <si>
+    <t>Test.leaveTest</t>
+  </si>
+  <si>
+    <t>Test.EmployeeDownloadTest</t>
+  </si>
+  <si>
+    <t>Test.calenderTest</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>UnitTest_03</t>
-  </si>
-  <si>
-    <t>Test.LoginTest</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>UnitTest_01</t>
-  </si>
-  <si>
-    <t>Test.TestUserCreation</t>
-  </si>
-  <si>
-    <t>UnitTest_04</t>
-  </si>
-  <si>
-    <t>Test.leaveTest</t>
-  </si>
-  <si>
-    <t>Test.EmployeeDownloadTest</t>
-  </si>
-  <si>
-    <t>Test.calenderTest</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -97,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,6 +104,103 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,137 +212,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,43 +260,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,139 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,11 +454,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +489,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,32 +527,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -548,157 +543,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,21 +1024,21 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="19.2777777777778" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.8703703703704" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.1296296296296" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="7.14814814814815" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="38.5555555555556" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="38.1481481481481" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.25" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="19.2777777777778" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="32.25" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="14.8703703703704" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.1296296296296" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="39.75" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="18.25" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="7.14814814814815" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="38.5555555555556" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="38.1481481481481" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="18.25" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1104,13 +1101,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:5">
@@ -1118,10 +1112,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1135,13 +1129,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1152,13 +1146,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1169,13 +1163,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
